--- a/2021-tokyo-olympics/Teams.xlsx
+++ b/2021-tokyo-olympics/Teams.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATASET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manda\Documents\Nikhil_Git\data-sets\2021-tokyo-olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F40EF4-959D-4983-89BE-837E85B820C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6030"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -672,7 +673,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -983,21 +984,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D744"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1025,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1067,7 +1068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1095,7 +1096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1109,7 +1110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1151,7 +1152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1417,7 +1418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1431,7 +1432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1445,7 +1446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1459,7 +1460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1543,7 +1544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1613,7 +1614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -1669,7 +1670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -1865,7 +1866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>44</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>46</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>29</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -2061,7 +2062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -2089,7 +2090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>33</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>34</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>34</v>
       </c>
@@ -2131,7 +2132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -2145,7 +2146,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2187,7 +2188,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>49</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>16</v>
       </c>
@@ -2229,7 +2230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>43</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>43</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>50</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>46</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>54</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>29</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>31</v>
       </c>
@@ -2439,7 +2440,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>32</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>34</v>
       </c>
@@ -2495,7 +2496,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>55</v>
       </c>
@@ -2509,7 +2510,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>55</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>56</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>37</v>
       </c>
@@ -2607,7 +2608,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>57</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>39</v>
       </c>
@@ -2635,7 +2636,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>16</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>58</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>43</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>43</v>
       </c>
@@ -2719,7 +2720,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>46</v>
       </c>
@@ -2733,7 +2734,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>46</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>19</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>21</v>
       </c>
@@ -2775,7 +2776,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>61</v>
       </c>
@@ -2789,7 +2790,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>26</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -2817,7 +2818,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -2845,7 +2846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>64</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>28</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>28</v>
       </c>
@@ -2887,7 +2888,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>28</v>
       </c>
@@ -2901,7 +2902,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>29</v>
       </c>
@@ -2915,7 +2916,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>29</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>31</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>67</v>
       </c>
@@ -2985,7 +2986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>68</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>69</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>69</v>
       </c>
@@ -3027,7 +3028,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>70</v>
       </c>
@@ -3041,7 +3042,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>72</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>33</v>
       </c>
@@ -3125,7 +3126,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>33</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>33</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>33</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>33</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>73</v>
       </c>
@@ -3195,7 +3196,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>34</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>34</v>
       </c>
@@ -3223,7 +3224,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>34</v>
       </c>
@@ -3237,7 +3238,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>34</v>
       </c>
@@ -3251,7 +3252,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>34</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>35</v>
       </c>
@@ -3279,7 +3280,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>35</v>
       </c>
@@ -3293,7 +3294,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>74</v>
       </c>
@@ -3307,7 +3308,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -3363,7 +3364,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>75</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>75</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>75</v>
       </c>
@@ -3419,7 +3420,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>75</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>75</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -3461,7 +3462,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>14</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -3517,7 +3518,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>14</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>76</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>76</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>15</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>15</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>15</v>
       </c>
@@ -3629,7 +3630,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>15</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>58</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>58</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>43</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>50</v>
       </c>
@@ -3699,7 +3700,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>50</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>77</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>77</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>77</v>
       </c>
@@ -3755,7 +3756,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>45</v>
       </c>
@@ -3769,7 +3770,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>46</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>46</v>
       </c>
@@ -3797,7 +3798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>19</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>19</v>
       </c>
@@ -3825,7 +3826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>19</v>
       </c>
@@ -3839,7 +3840,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>19</v>
       </c>
@@ -3853,7 +3854,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>19</v>
       </c>
@@ -3867,7 +3868,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>21</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>29</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>70</v>
       </c>
@@ -3909,7 +3910,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>56</v>
       </c>
@@ -3923,7 +3924,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>10</v>
       </c>
@@ -3937,7 +3938,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -3951,7 +3952,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>11</v>
       </c>
@@ -3965,7 +3966,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>39</v>
       </c>
@@ -3979,7 +3980,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>39</v>
       </c>
@@ -3993,7 +3994,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>42</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>19</v>
       </c>
@@ -4021,7 +4022,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>19</v>
       </c>
@@ -4035,7 +4036,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>82</v>
       </c>
@@ -4049,7 +4050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>21</v>
       </c>
@@ -4063,7 +4064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -4077,7 +4078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>3</v>
       </c>
@@ -4091,7 +4092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>29</v>
       </c>
@@ -4105,7 +4106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>68</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -4147,7 +4148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>9</v>
       </c>
@@ -4161,7 +4162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>33</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>84</v>
       </c>
@@ -4189,7 +4190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>10</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -4217,7 +4218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -4231,7 +4232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>76</v>
       </c>
@@ -4245,7 +4246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>76</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>86</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>42</v>
       </c>
@@ -4287,7 +4288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>18</v>
       </c>
@@ -4301,7 +4302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>87</v>
       </c>
@@ -4315,7 +4316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>43</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>43</v>
       </c>
@@ -4343,7 +4344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>19</v>
       </c>
@@ -4357,7 +4358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>19</v>
       </c>
@@ -4371,7 +4372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>88</v>
       </c>
@@ -4385,7 +4386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>90</v>
       </c>
@@ -4399,7 +4400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>91</v>
       </c>
@@ -4413,7 +4414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>92</v>
       </c>
@@ -4427,7 +4428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>93</v>
       </c>
@@ -4441,7 +4442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>94</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>95</v>
       </c>
@@ -4469,7 +4470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>96</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>97</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>98</v>
       </c>
@@ -4511,7 +4512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>99</v>
       </c>
@@ -4525,7 +4526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>101</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>102</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>103</v>
       </c>
@@ -4567,7 +4568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>104</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>105</v>
       </c>
@@ -4595,7 +4596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>106</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>107</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>108</v>
       </c>
@@ -4637,7 +4638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>109</v>
       </c>
@@ -4651,7 +4652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>110</v>
       </c>
@@ -4665,7 +4666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>111</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>112</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>113</v>
       </c>
@@ -4707,7 +4708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>114</v>
       </c>
@@ -4721,7 +4722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>116</v>
       </c>
@@ -4735,7 +4736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>117</v>
       </c>
@@ -4749,7 +4750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>118</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>119</v>
       </c>
@@ -4777,7 +4778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>121</v>
       </c>
@@ -4791,7 +4792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>122</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>123</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>124</v>
       </c>
@@ -4833,7 +4834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>126</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>127</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>128</v>
       </c>
@@ -4875,7 +4876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>130</v>
       </c>
@@ -4889,7 +4890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>131</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>132</v>
       </c>
@@ -4917,7 +4918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>133</v>
       </c>
@@ -4931,7 +4932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>134</v>
       </c>
@@ -4945,7 +4946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>135</v>
       </c>
@@ -4959,7 +4960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>136</v>
       </c>
@@ -4973,7 +4974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>137</v>
       </c>
@@ -4987,7 +4988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>138</v>
       </c>
@@ -5001,7 +5002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>139</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>140</v>
       </c>
@@ -5029,7 +5030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>141</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>21</v>
       </c>
@@ -5057,7 +5058,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>21</v>
       </c>
@@ -5071,7 +5072,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>21</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>21</v>
       </c>
@@ -5099,7 +5100,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>21</v>
       </c>
@@ -5113,7 +5114,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>54</v>
       </c>
@@ -5127,7 +5128,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>3</v>
       </c>
@@ -5141,7 +5142,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>3</v>
       </c>
@@ -5155,7 +5156,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>29</v>
       </c>
@@ -5169,7 +5170,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>29</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>29</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>29</v>
       </c>
@@ -5211,7 +5212,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>6</v>
       </c>
@@ -5225,7 +5226,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>69</v>
       </c>
@@ -5239,7 +5240,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>69</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>69</v>
       </c>
@@ -5267,7 +5268,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>9</v>
       </c>
@@ -5281,7 +5282,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>9</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -5309,7 +5310,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>9</v>
       </c>
@@ -5323,7 +5324,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>33</v>
       </c>
@@ -5337,7 +5338,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>33</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>33</v>
       </c>
@@ -5365,7 +5366,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>33</v>
       </c>
@@ -5379,7 +5380,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>33</v>
       </c>
@@ -5393,7 +5394,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>33</v>
       </c>
@@ -5407,7 +5408,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>34</v>
       </c>
@@ -5421,7 +5422,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>34</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>34</v>
       </c>
@@ -5449,7 +5450,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>34</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>34</v>
       </c>
@@ -5477,7 +5478,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>149</v>
       </c>
@@ -5491,7 +5492,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>74</v>
       </c>
@@ -5505,7 +5506,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>74</v>
       </c>
@@ -5519,7 +5520,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>10</v>
       </c>
@@ -5533,7 +5534,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>10</v>
       </c>
@@ -5547,7 +5548,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>10</v>
       </c>
@@ -5561,7 +5562,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>10</v>
       </c>
@@ -5575,7 +5576,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>11</v>
       </c>
@@ -5589,7 +5590,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>150</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>39</v>
       </c>
@@ -5617,7 +5618,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>14</v>
       </c>
@@ -5631,7 +5632,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>14</v>
       </c>
@@ -5645,7 +5646,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>14</v>
       </c>
@@ -5659,7 +5660,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>14</v>
       </c>
@@ -5673,7 +5674,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>151</v>
       </c>
@@ -5687,7 +5688,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>151</v>
       </c>
@@ -5701,7 +5702,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>151</v>
       </c>
@@ -5715,7 +5716,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>151</v>
       </c>
@@ -5729,7 +5730,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>151</v>
       </c>
@@ -5743,7 +5744,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>15</v>
       </c>
@@ -5757,7 +5758,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>15</v>
       </c>
@@ -5771,7 +5772,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>15</v>
       </c>
@@ -5785,7 +5786,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>15</v>
       </c>
@@ -5799,7 +5800,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>16</v>
       </c>
@@ -5813,7 +5814,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>16</v>
       </c>
@@ -5827,7 +5828,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>16</v>
       </c>
@@ -5841,7 +5842,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>43</v>
       </c>
@@ -5855,7 +5856,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>50</v>
       </c>
@@ -5869,7 +5870,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>50</v>
       </c>
@@ -5883,7 +5884,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>46</v>
       </c>
@@ -5897,7 +5898,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>19</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>19</v>
       </c>
@@ -5925,7 +5926,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>19</v>
       </c>
@@ -5939,7 +5940,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>29</v>
       </c>
@@ -5953,7 +5954,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>29</v>
       </c>
@@ -5967,7 +5968,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>6</v>
       </c>
@@ -5981,7 +5982,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>6</v>
       </c>
@@ -5995,7 +5996,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>6</v>
       </c>
@@ -6009,7 +6010,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>32</v>
       </c>
@@ -6023,7 +6024,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>32</v>
       </c>
@@ -6037,7 +6038,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>32</v>
       </c>
@@ -6051,7 +6052,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>159</v>
       </c>
@@ -6065,7 +6066,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>9</v>
       </c>
@@ -6079,7 +6080,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>9</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>9</v>
       </c>
@@ -6107,7 +6108,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>9</v>
       </c>
@@ -6121,7 +6122,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>33</v>
       </c>
@@ -6135,7 +6136,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>33</v>
       </c>
@@ -6149,7 +6150,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>149</v>
       </c>
@@ -6163,7 +6164,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>149</v>
       </c>
@@ -6177,7 +6178,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>160</v>
       </c>
@@ -6191,7 +6192,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>160</v>
       </c>
@@ -6205,7 +6206,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>160</v>
       </c>
@@ -6219,7 +6220,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>84</v>
       </c>
@@ -6233,7 +6234,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>10</v>
       </c>
@@ -6247,7 +6248,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>10</v>
       </c>
@@ -6261,7 +6262,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>10</v>
       </c>
@@ -6275,7 +6276,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>10</v>
       </c>
@@ -6289,7 +6290,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>10</v>
       </c>
@@ -6303,7 +6304,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>10</v>
       </c>
@@ -6317,7 +6318,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>11</v>
       </c>
@@ -6331,7 +6332,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>11</v>
       </c>
@@ -6345,7 +6346,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>11</v>
       </c>
@@ -6359,7 +6360,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>11</v>
       </c>
@@ -6373,7 +6374,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>11</v>
       </c>
@@ -6387,7 +6388,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>15</v>
       </c>
@@ -6401,7 +6402,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>42</v>
       </c>
@@ -6415,7 +6416,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>42</v>
       </c>
@@ -6429,7 +6430,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>42</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>42</v>
       </c>
@@ -6457,7 +6458,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>16</v>
       </c>
@@ -6471,7 +6472,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>16</v>
       </c>
@@ -6485,7 +6486,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>16</v>
       </c>
@@ -6499,7 +6500,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>16</v>
       </c>
@@ -6513,7 +6514,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>16</v>
       </c>
@@ -6527,7 +6528,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>16</v>
       </c>
@@ -6541,7 +6542,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>50</v>
       </c>
@@ -6555,7 +6556,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>44</v>
       </c>
@@ -6569,7 +6570,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>46</v>
       </c>
@@ -6583,7 +6584,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>19</v>
       </c>
@@ -6597,7 +6598,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>19</v>
       </c>
@@ -6611,7 +6612,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>19</v>
       </c>
@@ -6625,7 +6626,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>19</v>
       </c>
@@ -6639,7 +6640,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>19</v>
       </c>
@@ -6653,7 +6654,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>19</v>
       </c>
@@ -6667,7 +6668,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>82</v>
       </c>
@@ -6681,7 +6682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>21</v>
       </c>
@@ -6695,7 +6696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>21</v>
       </c>
@@ -6709,7 +6710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>28</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>28</v>
       </c>
@@ -6737,7 +6738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>29</v>
       </c>
@@ -6751,7 +6752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>100</v>
       </c>
@@ -6765,7 +6766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>6</v>
       </c>
@@ -6779,7 +6780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>162</v>
       </c>
@@ -6793,7 +6794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>32</v>
       </c>
@@ -6807,7 +6808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>9</v>
       </c>
@@ -6821,7 +6822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>33</v>
       </c>
@@ -6835,7 +6836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>34</v>
       </c>
@@ -6849,7 +6850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>164</v>
       </c>
@@ -6863,7 +6864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>11</v>
       </c>
@@ -6877,7 +6878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>11</v>
       </c>
@@ -6891,7 +6892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>39</v>
       </c>
@@ -6905,7 +6906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>14</v>
       </c>
@@ -6919,7 +6920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>151</v>
       </c>
@@ -6933,7 +6934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>151</v>
       </c>
@@ -6947,7 +6948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>42</v>
       </c>
@@ -6961,7 +6962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>17</v>
       </c>
@@ -6975,7 +6976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>165</v>
       </c>
@@ -6989,7 +6990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>58</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>43</v>
       </c>
@@ -7017,7 +7018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>166</v>
       </c>
@@ -7031,7 +7032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>19</v>
       </c>
@@ -7045,7 +7046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>167</v>
       </c>
@@ -7059,7 +7060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>168</v>
       </c>
@@ -7073,7 +7074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>82</v>
       </c>
@@ -7087,7 +7088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>170</v>
       </c>
@@ -7101,7 +7102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>28</v>
       </c>
@@ -7115,7 +7116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>28</v>
       </c>
@@ -7129,7 +7130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>69</v>
       </c>
@@ -7143,7 +7144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>32</v>
       </c>
@@ -7157,7 +7158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>9</v>
       </c>
@@ -7171,7 +7172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>9</v>
       </c>
@@ -7185,7 +7186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>33</v>
       </c>
@@ -7199,7 +7200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>160</v>
       </c>
@@ -7213,7 +7214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>11</v>
       </c>
@@ -7227,7 +7228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>11</v>
       </c>
@@ -7241,7 +7242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>171</v>
       </c>
@@ -7255,7 +7256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>14</v>
       </c>
@@ -7269,7 +7270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>125</v>
       </c>
@@ -7283,7 +7284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>125</v>
       </c>
@@ -7297,7 +7298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>172</v>
       </c>
@@ -7311,7 +7312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>42</v>
       </c>
@@ -7325,7 +7326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>16</v>
       </c>
@@ -7339,7 +7340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>43</v>
       </c>
@@ -7353,7 +7354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>43</v>
       </c>
@@ -7367,7 +7368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>166</v>
       </c>
@@ -7381,7 +7382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>166</v>
       </c>
@@ -7395,7 +7396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>82</v>
       </c>
@@ -7409,7 +7410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>82</v>
       </c>
@@ -7423,7 +7424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>21</v>
       </c>
@@ -7437,7 +7438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>21</v>
       </c>
@@ -7451,7 +7452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>3</v>
       </c>
@@ -7465,7 +7466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>29</v>
       </c>
@@ -7479,7 +7480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>6</v>
       </c>
@@ -7493,7 +7494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>33</v>
       </c>
@@ -7507,7 +7508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>33</v>
       </c>
@@ -7521,7 +7522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>34</v>
       </c>
@@ -7535,7 +7536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>34</v>
       </c>
@@ -7549,7 +7550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>35</v>
       </c>
@@ -7563,7 +7564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>35</v>
       </c>
@@ -7577,7 +7578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>74</v>
       </c>
@@ -7591,7 +7592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>11</v>
       </c>
@@ -7605,7 +7606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>11</v>
       </c>
@@ -7619,7 +7620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>14</v>
       </c>
@@ -7633,7 +7634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>14</v>
       </c>
@@ -7647,7 +7648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>151</v>
       </c>
@@ -7661,7 +7662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>151</v>
       </c>
@@ -7675,7 +7676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>58</v>
       </c>
@@ -7689,7 +7690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>58</v>
       </c>
@@ -7703,7 +7704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>43</v>
       </c>
@@ -7717,7 +7718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>43</v>
       </c>
@@ -7731,7 +7732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>21</v>
       </c>
@@ -7745,7 +7746,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>176</v>
       </c>
@@ -7759,7 +7760,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>26</v>
       </c>
@@ -7773,7 +7774,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>28</v>
       </c>
@@ -7787,7 +7788,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>177</v>
       </c>
@@ -7801,7 +7802,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>6</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>32</v>
       </c>
@@ -7829,7 +7830,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>56</v>
       </c>
@@ -7843,7 +7844,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>10</v>
       </c>
@@ -7857,7 +7858,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>11</v>
       </c>
@@ -7871,7 +7872,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>16</v>
       </c>
@@ -7885,7 +7886,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>46</v>
       </c>
@@ -7899,7 +7900,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>19</v>
       </c>
@@ -7913,7 +7914,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>178</v>
       </c>
@@ -7927,7 +7928,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>82</v>
       </c>
@@ -7941,7 +7942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>21</v>
       </c>
@@ -7955,7 +7956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>21</v>
       </c>
@@ -7969,7 +7970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>28</v>
       </c>
@@ -7983,7 +7984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>29</v>
       </c>
@@ -7997,7 +7998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>29</v>
       </c>
@@ -8011,7 +8012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>6</v>
       </c>
@@ -8025,7 +8026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>180</v>
       </c>
@@ -8039,7 +8040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>180</v>
       </c>
@@ -8053,7 +8054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>9</v>
       </c>
@@ -8067,7 +8068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>34</v>
       </c>
@@ -8081,7 +8082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>34</v>
       </c>
@@ -8095,7 +8096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>74</v>
       </c>
@@ -8109,7 +8110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>11</v>
       </c>
@@ -8123,7 +8124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>11</v>
       </c>
@@ -8137,7 +8138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>115</v>
       </c>
@@ -8151,7 +8152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>115</v>
       </c>
@@ -8165,7 +8166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>151</v>
       </c>
@@ -8179,7 +8180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>151</v>
       </c>
@@ -8193,7 +8194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>42</v>
       </c>
@@ -8207,7 +8208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>16</v>
       </c>
@@ -8221,7 +8222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>58</v>
       </c>
@@ -8235,7 +8236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>19</v>
       </c>
@@ -8249,7 +8250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>19</v>
       </c>
@@ -8263,7 +8264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>21</v>
       </c>
@@ -8277,7 +8278,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>21</v>
       </c>
@@ -8291,7 +8292,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>21</v>
       </c>
@@ -8305,7 +8306,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>21</v>
       </c>
@@ -8319,7 +8320,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>21</v>
       </c>
@@ -8333,7 +8334,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>21</v>
       </c>
@@ -8347,7 +8348,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>21</v>
       </c>
@@ -8361,7 +8362,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>26</v>
       </c>
@@ -8375,7 +8376,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>26</v>
       </c>
@@ -8389,7 +8390,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>26</v>
       </c>
@@ -8403,7 +8404,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>28</v>
       </c>
@@ -8417,7 +8418,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>28</v>
       </c>
@@ -8431,7 +8432,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>28</v>
       </c>
@@ -8445,7 +8446,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>28</v>
       </c>
@@ -8459,7 +8460,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>28</v>
       </c>
@@ -8473,7 +8474,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>28</v>
       </c>
@@ -8487,7 +8488,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>29</v>
       </c>
@@ -8501,7 +8502,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>29</v>
       </c>
@@ -8515,7 +8516,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>29</v>
       </c>
@@ -8529,7 +8530,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>29</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>29</v>
       </c>
@@ -8557,7 +8558,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>29</v>
       </c>
@@ -8571,7 +8572,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>6</v>
       </c>
@@ -8585,7 +8586,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>6</v>
       </c>
@@ -8599,7 +8600,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>6</v>
       </c>
@@ -8613,7 +8614,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>6</v>
       </c>
@@ -8627,7 +8628,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>6</v>
       </c>
@@ -8641,7 +8642,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>6</v>
       </c>
@@ -8655,7 +8656,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>68</v>
       </c>
@@ -8669,7 +8670,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>69</v>
       </c>
@@ -8683,7 +8684,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>69</v>
       </c>
@@ -8697,7 +8698,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>9</v>
       </c>
@@ -8711,7 +8712,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>9</v>
       </c>
@@ -8725,7 +8726,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>9</v>
       </c>
@@ -8739,7 +8740,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>9</v>
       </c>
@@ -8753,7 +8754,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>9</v>
       </c>
@@ -8767,7 +8768,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>33</v>
       </c>
@@ -8781,7 +8782,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>33</v>
       </c>
@@ -8795,7 +8796,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>33</v>
       </c>
@@ -8809,7 +8810,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>33</v>
       </c>
@@ -8823,7 +8824,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>33</v>
       </c>
@@ -8837,7 +8838,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>33</v>
       </c>
@@ -8851,7 +8852,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>33</v>
       </c>
@@ -8865,7 +8866,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>34</v>
       </c>
@@ -8879,7 +8880,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>34</v>
       </c>
@@ -8893,7 +8894,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>34</v>
       </c>
@@ -8907,7 +8908,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>34</v>
       </c>
@@ -8921,7 +8922,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>34</v>
       </c>
@@ -8935,7 +8936,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>34</v>
       </c>
@@ -8949,7 +8950,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>55</v>
       </c>
@@ -8963,7 +8964,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>55</v>
       </c>
@@ -8977,7 +8978,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>55</v>
       </c>
@@ -8991,7 +8992,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>149</v>
       </c>
@@ -9005,7 +9006,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>149</v>
       </c>
@@ -9019,7 +9020,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>149</v>
       </c>
@@ -9033,7 +9034,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>160</v>
       </c>
@@ -9047,7 +9048,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>160</v>
       </c>
@@ -9061,7 +9062,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>160</v>
       </c>
@@ -9075,7 +9076,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>160</v>
       </c>
@@ -9089,7 +9090,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>160</v>
       </c>
@@ -9103,7 +9104,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>74</v>
       </c>
@@ -9117,7 +9118,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>56</v>
       </c>
@@ -9131,7 +9132,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>56</v>
       </c>
@@ -9145,7 +9146,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>10</v>
       </c>
@@ -9159,7 +9160,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>10</v>
       </c>
@@ -9173,7 +9174,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>10</v>
       </c>
@@ -9187,7 +9188,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>10</v>
       </c>
@@ -9201,7 +9202,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>10</v>
       </c>
@@ -9215,7 +9216,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>10</v>
       </c>
@@ -9229,7 +9230,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>11</v>
       </c>
@@ -9243,7 +9244,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>11</v>
       </c>
@@ -9257,7 +9258,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>11</v>
       </c>
@@ -9271,7 +9272,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>11</v>
       </c>
@@ -9285,7 +9286,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>11</v>
       </c>
@@ -9299,7 +9300,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>11</v>
       </c>
@@ -9313,7 +9314,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>11</v>
       </c>
@@ -9327,7 +9328,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>150</v>
       </c>
@@ -9341,7 +9342,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>14</v>
       </c>
@@ -9355,7 +9356,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>14</v>
       </c>
@@ -9369,7 +9370,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>14</v>
       </c>
@@ -9383,7 +9384,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>14</v>
       </c>
@@ -9397,7 +9398,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>151</v>
       </c>
@@ -9411,7 +9412,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>15</v>
       </c>
@@ -9425,7 +9426,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>15</v>
       </c>
@@ -9439,7 +9440,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>15</v>
       </c>
@@ -9453,7 +9454,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>15</v>
       </c>
@@ -9467,7 +9468,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>15</v>
       </c>
@@ -9481,7 +9482,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>15</v>
       </c>
@@ -9495,7 +9496,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>42</v>
       </c>
@@ -9509,7 +9510,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>42</v>
       </c>
@@ -9523,7 +9524,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>16</v>
       </c>
@@ -9537,7 +9538,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>16</v>
       </c>
@@ -9551,7 +9552,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>16</v>
       </c>
@@ -9565,7 +9566,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>16</v>
       </c>
@@ -9579,7 +9580,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>16</v>
       </c>
@@ -9593,7 +9594,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>16</v>
       </c>
@@ -9607,7 +9608,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>16</v>
       </c>
@@ -9621,7 +9622,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>18</v>
       </c>
@@ -9635,7 +9636,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>58</v>
       </c>
@@ -9649,7 +9650,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>58</v>
       </c>
@@ -9663,7 +9664,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>43</v>
       </c>
@@ -9677,7 +9678,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>166</v>
       </c>
@@ -9691,7 +9692,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>166</v>
       </c>
@@ -9705,7 +9706,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>50</v>
       </c>
@@ -9719,7 +9720,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>50</v>
       </c>
@@ -9733,7 +9734,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>45</v>
       </c>
@@ -9747,7 +9748,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>19</v>
       </c>
@@ -9761,7 +9762,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>19</v>
       </c>
@@ -9775,7 +9776,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>19</v>
       </c>
@@ -9789,7 +9790,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>19</v>
       </c>
@@ -9803,7 +9804,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>19</v>
       </c>
@@ -9817,7 +9818,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>19</v>
       </c>
@@ -9831,7 +9832,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>19</v>
       </c>
@@ -9845,7 +9846,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>21</v>
       </c>
@@ -9859,7 +9860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>190</v>
       </c>
@@ -9873,7 +9874,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>21</v>
       </c>
@@ -9887,7 +9888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>192</v>
       </c>
@@ -9901,7 +9902,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>54</v>
       </c>
@@ -9915,7 +9916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>28</v>
       </c>
@@ -9929,7 +9930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>28</v>
       </c>
@@ -9943,7 +9944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>193</v>
       </c>
@@ -9957,7 +9958,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>6</v>
       </c>
@@ -9971,7 +9972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>194</v>
       </c>
@@ -9985,7 +9986,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>6</v>
       </c>
@@ -9999,7 +10000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>30</v>
       </c>
@@ -10013,7 +10014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>195</v>
       </c>
@@ -10027,7 +10028,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>30</v>
       </c>
@@ -10041,7 +10042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>196</v>
       </c>
@@ -10055,7 +10056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>197</v>
       </c>
@@ -10069,7 +10070,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>32</v>
       </c>
@@ -10083,7 +10084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>198</v>
       </c>
@@ -10097,7 +10098,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>32</v>
       </c>
@@ -10111,7 +10112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>9</v>
       </c>
@@ -10125,7 +10126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>199</v>
       </c>
@@ -10139,7 +10140,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>9</v>
       </c>
@@ -10153,7 +10154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>33</v>
       </c>
@@ -10167,7 +10168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>200</v>
       </c>
@@ -10181,7 +10182,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>33</v>
       </c>
@@ -10195,7 +10196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>149</v>
       </c>
@@ -10209,7 +10210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>201</v>
       </c>
@@ -10223,7 +10224,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>149</v>
       </c>
@@ -10237,7 +10238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>202</v>
       </c>
@@ -10251,7 +10252,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>160</v>
       </c>
@@ -10265,7 +10266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>203</v>
       </c>
@@ -10279,7 +10280,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>11</v>
       </c>
@@ -10293,7 +10294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>204</v>
       </c>
@@ -10307,7 +10308,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>11</v>
       </c>
@@ -10321,7 +10322,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>15</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>172</v>
       </c>
@@ -10349,7 +10350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>42</v>
       </c>
@@ -10363,7 +10364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>205</v>
       </c>
@@ -10377,7 +10378,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>42</v>
       </c>
@@ -10391,7 +10392,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>206</v>
       </c>
@@ -10405,7 +10406,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>17</v>
       </c>
@@ -10419,7 +10420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>18</v>
       </c>
@@ -10433,7 +10434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>207</v>
       </c>
@@ -10447,7 +10448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>208</v>
       </c>
@@ -10461,7 +10462,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>87</v>
       </c>
@@ -10475,7 +10476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>166</v>
       </c>
@@ -10489,7 +10490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>19</v>
       </c>
@@ -10503,7 +10504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>19</v>
       </c>
@@ -10517,7 +10518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>21</v>
       </c>
@@ -10531,7 +10532,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>54</v>
       </c>
@@ -10545,7 +10546,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>3</v>
       </c>
@@ -10559,7 +10560,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>29</v>
       </c>
@@ -10573,7 +10574,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>9</v>
       </c>
@@ -10587,7 +10588,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>33</v>
       </c>
@@ -10601,7 +10602,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>34</v>
       </c>
@@ -10615,7 +10616,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>160</v>
       </c>
@@ -10629,7 +10630,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>10</v>
       </c>
@@ -10643,7 +10644,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>11</v>
       </c>
@@ -10657,7 +10658,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>39</v>
       </c>
@@ -10671,7 +10672,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>14</v>
       </c>
@@ -10685,7 +10686,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>151</v>
       </c>
@@ -10699,7 +10700,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>16</v>
       </c>
@@ -10713,7 +10714,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>58</v>
       </c>
@@ -10727,7 +10728,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>43</v>
       </c>
@@ -10741,7 +10742,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>50</v>
       </c>
@@ -10755,7 +10756,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>19</v>
       </c>
@@ -10769,7 +10770,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>82</v>
       </c>
@@ -10783,7 +10784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>82</v>
       </c>
@@ -10797,7 +10798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>28</v>
       </c>
@@ -10811,7 +10812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>28</v>
       </c>
@@ -10825,7 +10826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>29</v>
       </c>
@@ -10839,7 +10840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>6</v>
       </c>
@@ -10853,7 +10854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>70</v>
       </c>
@@ -10867,7 +10868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>9</v>
       </c>
@@ -10881,7 +10882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>84</v>
       </c>
@@ -10895,7 +10896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>10</v>
       </c>
@@ -10909,7 +10910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>10</v>
       </c>
@@ -10923,7 +10924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>11</v>
       </c>
@@ -10937,7 +10938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>11</v>
       </c>
@@ -10951,7 +10952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>115</v>
       </c>
@@ -10965,7 +10966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>15</v>
       </c>
@@ -10979,7 +10980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>42</v>
       </c>
@@ -10993,7 +10994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>16</v>
       </c>
@@ -11007,7 +11008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>16</v>
       </c>
@@ -11021,7 +11022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>18</v>
       </c>
@@ -11035,7 +11036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>44</v>
       </c>
@@ -11049,7 +11050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>45</v>
       </c>
@@ -11063,7 +11064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>19</v>
       </c>
@@ -11077,7 +11078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>19</v>
       </c>
@@ -11091,7 +11092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>213</v>
       </c>
@@ -11105,7 +11106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>21</v>
       </c>
@@ -11119,7 +11120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>21</v>
       </c>
@@ -11133,7 +11134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>29</v>
       </c>
@@ -11147,7 +11148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>6</v>
       </c>
@@ -11161,7 +11162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>196</v>
       </c>
@@ -11175,7 +11176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>55</v>
       </c>
@@ -11189,7 +11190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>160</v>
       </c>
@@ -11203,7 +11204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>160</v>
       </c>
@@ -11217,7 +11218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>10</v>
       </c>
@@ -11231,7 +11232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>11</v>
       </c>
@@ -11245,7 +11246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>11</v>
       </c>
@@ -11259,7 +11260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>37</v>
       </c>
@@ -11273,7 +11274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>171</v>
       </c>
@@ -11287,7 +11288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>14</v>
       </c>
@@ -11301,7 +11302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>16</v>
       </c>
@@ -11315,7 +11316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>18</v>
       </c>
@@ -11329,7 +11330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>58</v>
       </c>
@@ -11343,7 +11344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>58</v>
       </c>
@@ -11357,7 +11358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>43</v>
       </c>
@@ -11371,7 +11372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>43</v>
       </c>
@@ -11385,7 +11386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>19</v>
       </c>
@@ -11399,7 +11400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>19</v>
       </c>
